--- a/resources/guest_list.xlsx
+++ b/resources/guest_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyma\Desktop\Projects\Wedding_web\wedding\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE199FB3-6B66-437F-868B-F4F913FECC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB0A30F-7CE6-4B57-92B1-7320B549FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="21336" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>email_sent</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>גיא מדואל</t>
@@ -419,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,22 +452,19 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -484,22 +478,19 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -510,22 +501,19 @@
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -538,9 +526,6 @@
       </c>
       <c r="I4" t="b">
         <v>1</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resources/guest_list.xlsx
+++ b/resources/guest_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyma\Desktop\Projects\Wedding_web\wedding\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB0A30F-7CE6-4B57-92B1-7320B549FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C27DFB-67F1-4783-887E-D7AA057C1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="21336" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>guy.gm.maduel@gmail.com</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>link</t>
   </si>
 </sst>
 </file>
@@ -416,15 +425,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,80 +467,103 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/guest_list.xlsx
+++ b/resources/guest_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guyma\Desktop\Projects\Wedding_web\wedding\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C27DFB-67F1-4783-887E-D7AA057C1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752C036A-5412-404E-B2A4-88652F91EDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -58,9 +58,6 @@
     <t>0522505756</t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
     <t>Aaliyah Hay</t>
   </si>
   <si>
@@ -79,23 +76,31 @@
     <t>guy.gm.maduel@gmail.com</t>
   </si>
   <si>
-    <t>whatsapp</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>link</t>
+    <t>whatsapp@gmail.com</t>
+  </si>
+  <si>
+    <t>america</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,13 +123,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,21 +433,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="81.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,105 +479,111 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
-        <v>21</v>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
+      <c r="I5" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{7A461946-2B76-4DF9-93A2-C5921B5DEF74}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>